--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220517_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220517_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -775,10 +775,10 @@
     <t>마크툽컴퍼니</t>
   </si>
   <si>
+    <t>기타</t>
+  </si>
+  <si>
     <t>WM</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>BRAVE</t>
@@ -1206,7 +1206,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1284,7 +1284,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1310,7 +1310,7 @@
         <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1336,7 +1336,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,7 +1362,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1414,7 +1414,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1440,7 +1440,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1492,7 +1492,7 @@
         <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1518,7 +1518,7 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1544,7 @@
         <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,7 +1570,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,7 +1596,7 @@
         <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1622,7 +1622,7 @@
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1648,7 +1648,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1700,7 +1700,7 @@
         <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1726,7 +1726,7 @@
         <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1752,7 +1752,7 @@
         <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1778,7 +1778,7 @@
         <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1804,7 +1804,7 @@
         <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1830,7 +1830,7 @@
         <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1856,7 +1856,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1908,7 +1908,7 @@
         <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1934,7 +1934,7 @@
         <v>234</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1960,7 +1960,7 @@
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1986,7 +1986,7 @@
         <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2012,7 +2012,7 @@
         <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2038,7 +2038,7 @@
         <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2064,7 +2064,7 @@
         <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2090,7 +2090,7 @@
         <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2116,7 +2116,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2142,7 +2142,7 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2168,7 +2168,7 @@
         <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2194,7 +2194,7 @@
         <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2220,7 +2220,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2246,7 +2246,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,7 +2272,7 @@
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2454,7 +2454,7 @@
         <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2506,7 +2506,7 @@
         <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,7 +2532,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2584,7 +2584,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2610,7 +2610,7 @@
         <v>247</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2662,7 +2662,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2688,7 +2688,7 @@
         <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2714,7 +2714,7 @@
         <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2740,7 +2740,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2766,7 +2766,7 @@
         <v>233</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2792,7 +2792,7 @@
         <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2844,7 +2844,7 @@
         <v>228</v>
       </c>
       <c r="H65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2870,7 +2870,7 @@
         <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2896,7 +2896,7 @@
         <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2922,7 +2922,7 @@
         <v>249</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3000,7 +3000,7 @@
         <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3026,7 @@
         <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,7 +3052,7 @@
         <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3078,7 +3078,7 @@
         <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3104,7 +3104,7 @@
         <v>236</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3130,7 @@
         <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,7 +3156,7 @@
         <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3182,7 +3182,7 @@
         <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,7 +3208,7 @@
         <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3234,7 +3234,7 @@
         <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3286,7 +3286,7 @@
         <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3312,7 +3312,7 @@
         <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3338,7 +3338,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3360,6 +3360,12 @@
       <c r="F85" t="s">
         <v>207</v>
       </c>
+      <c r="G85" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
@@ -3381,10 +3387,10 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3407,10 +3413,10 @@
         <v>208</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3433,10 +3439,10 @@
         <v>209</v>
       </c>
       <c r="G88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3462,7 +3468,7 @@
         <v>255</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3514,7 +3520,7 @@
         <v>221</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3592,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3618,7 +3624,7 @@
         <v>256</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3644,7 +3650,7 @@
         <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,7 +3676,7 @@
         <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3696,7 +3702,7 @@
         <v>259</v>
       </c>
       <c r="H98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:8">

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220517_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220517_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -700,7 +700,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>마크툽컴퍼니</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -1206,7 +1203,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1284,7 +1281,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1310,7 +1307,7 @@
         <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1336,7 +1333,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,7 +1359,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1414,7 +1411,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1440,7 +1437,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1492,7 +1489,7 @@
         <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1518,7 +1515,7 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1541,7 @@
         <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,7 +1567,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,7 +1593,7 @@
         <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1622,7 +1619,7 @@
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1648,7 +1645,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1700,7 +1697,7 @@
         <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1726,7 +1723,7 @@
         <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1752,7 +1749,7 @@
         <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1778,7 +1775,7 @@
         <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1804,7 +1801,7 @@
         <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1830,7 +1827,7 @@
         <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1856,7 +1853,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1908,7 +1905,7 @@
         <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1934,7 +1931,7 @@
         <v>234</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1960,7 +1957,7 @@
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1986,7 +1983,7 @@
         <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2012,7 +2009,7 @@
         <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2038,7 +2035,7 @@
         <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2064,7 +2061,7 @@
         <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2090,7 +2087,7 @@
         <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2116,7 +2113,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2142,7 +2139,7 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2168,7 +2165,7 @@
         <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2194,7 +2191,7 @@
         <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2220,7 +2217,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2246,7 +2243,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,7 +2269,7 @@
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2402,7 +2399,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2454,7 +2451,7 @@
         <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2506,7 +2503,7 @@
         <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,7 +2529,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2584,7 +2581,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2610,7 +2607,7 @@
         <v>247</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2662,7 +2659,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2688,7 +2685,7 @@
         <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2714,7 +2711,7 @@
         <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2740,7 +2737,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2766,7 +2763,7 @@
         <v>233</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2792,7 +2789,7 @@
         <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2844,7 +2841,7 @@
         <v>228</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2870,7 +2867,7 @@
         <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2896,7 +2893,7 @@
         <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2922,7 +2919,7 @@
         <v>249</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3000,7 +2997,7 @@
         <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3023,7 @@
         <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,7 +3049,7 @@
         <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3078,7 +3075,7 @@
         <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3104,7 +3101,7 @@
         <v>236</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3127,7 @@
         <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,7 +3153,7 @@
         <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3182,7 +3179,7 @@
         <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,7 +3205,7 @@
         <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3234,7 +3231,7 @@
         <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3286,7 +3283,7 @@
         <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3312,7 +3309,7 @@
         <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3338,7 +3335,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3361,10 +3358,10 @@
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3387,10 +3384,10 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3413,10 +3410,10 @@
         <v>208</v>
       </c>
       <c r="G87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3439,10 +3436,10 @@
         <v>209</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3465,10 +3462,10 @@
         <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3520,7 +3517,7 @@
         <v>221</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3598,7 +3595,7 @@
         <v>228</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3621,10 +3618,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3647,10 +3644,10 @@
         <v>215</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3673,10 +3670,10 @@
         <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3699,10 +3696,10 @@
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:8">
